--- a/BackTest/2020-01-14 BackTest BCH.xlsx
+++ b/BackTest/2020-01-14 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6490,7 +6490,7 @@
         <v>129.2515048700002</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>129.2405048700002</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>439.8245145000002</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>351.7477145000002</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>269.3413145000002</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>217.2267145000002</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>162.1916145000002</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>237.0826145000002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>258.6036145000002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>251.6036145000002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>238.6036145000002</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>219.7429145000002</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>229.5982145000002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>228.2571145000002</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>231.6673155500002</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>229.2895155500002</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>229.4345155500002</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>214.1387155500002</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>144.8332155500002</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>112.3314155500002</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>112.3314155500002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>71.3814155500002</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>62.4469155500002</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>72.9028155500002</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>72.0003155500002</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>68.8591155500002</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>68.3335155500002</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>76.04991555000021</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>221.1526155500002</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>229.4363155500002</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>229.4363155500002</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>240.4593155500002</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>229.4512155500002</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>238.4512155500002</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>177.9512155500002</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>177.9512155500002</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>178.0093776500002</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>177.3664776500002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>191.3664776500002</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>183.3676776500002</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>184.4910776500002</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>183.6319776500002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>184.7138563900003</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>206.6962428600003</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>201.7273428600003</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>220.1103428600003</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>219.7035428600003</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>229.4829428600003</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>261.1695428600003</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>257.6805428600003</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>257.6805428600003</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>255.9993428600004</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>224.4995428600004</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>216.6558428600003</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>218.1558428600003</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>218.1558428600003</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>217.4512428600003</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>185.6174428600004</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>186.3894428600003</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>167.3671428600003</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>155.2618428600003</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>161.3418428600004</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>161.3418428600004</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>160.8418428600004</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>133.1651428600003</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>135.7703428600003</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>135.3245428600003</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>133.2153428600004</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>133.2153428600004</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>130.0753428600004</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>107.9640428600004</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>41.21094286000037</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-97.75245713999963</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-81.79715713999964</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-236.5895571399996</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-236.5895571399996</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-236.5895571399996</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-226.8150571399996</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -14575,10 +14575,14 @@
         <v>-616.1479927099998</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>296200</v>
+      </c>
+      <c r="J430" t="n">
+        <v>296200</v>
+      </c>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
@@ -14608,11 +14612,19 @@
         <v>-608.9340927099998</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>296200</v>
+      </c>
+      <c r="J431" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14653,19 @@
         <v>-608.9340927099998</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>296300</v>
+      </c>
+      <c r="J432" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14694,19 @@
         <v>-610.9340927099998</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>296300</v>
+      </c>
+      <c r="J433" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14735,19 @@
         <v>-618.1545927099999</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>296200</v>
+      </c>
+      <c r="J434" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14776,19 @@
         <v>-619.6129927099998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>296100</v>
+      </c>
+      <c r="J435" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14817,19 @@
         <v>-621.6740927099999</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>296000</v>
+      </c>
+      <c r="J436" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +14858,19 @@
         <v>-643.3934927099998</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>295700</v>
+      </c>
+      <c r="J437" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14899,19 @@
         <v>-681.6304927099998</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>295600</v>
+      </c>
+      <c r="J438" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14940,19 @@
         <v>-694.1821927099998</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>295500</v>
+      </c>
+      <c r="J439" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14981,19 @@
         <v>-718.3605927099998</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>295100</v>
+      </c>
+      <c r="J440" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,15 +15022,17 @@
         <v>-724.7070927099998</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>295000</v>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>296200</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L441" t="n">
@@ -14977,12 +15063,14 @@
         <v>-722.9667927099997</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>294900</v>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>296200</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15016,12 +15104,14 @@
         <v>-696.5251927099997</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>295200</v>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>296200</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15055,12 +15145,14 @@
         <v>-697.2486927099997</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>295300</v>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>296200</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15094,12 +15186,14 @@
         <v>-696.8534920399997</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>295100</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>296200</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15133,12 +15227,14 @@
         <v>-692.8534920399997</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>295400</v>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>296200</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15172,12 +15268,14 @@
         <v>-699.1866920399997</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>295700</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>296200</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15211,12 +15309,14 @@
         <v>-699.1866920399997</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>295000</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>296200</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15250,12 +15350,14 @@
         <v>-698.6866920399997</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>295000</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>296200</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15289,12 +15391,14 @@
         <v>-698.5831920399996</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>295400</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>296200</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15328,12 +15432,14 @@
         <v>-698.5831920399996</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>295800</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>296200</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15367,12 +15473,14 @@
         <v>-698.5831920399996</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>295800</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>296200</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15406,12 +15514,14 @@
         <v>-698.5566920399996</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>295800</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>296200</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15445,12 +15555,14 @@
         <v>-687.5090920399996</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>296200</v>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>296200</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15484,12 +15596,14 @@
         <v>-600.8158920399995</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>296400</v>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>296200</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15523,12 +15637,14 @@
         <v>-600.8158920399995</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>296900</v>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>296200</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15562,10 +15678,14 @@
         <v>-622.8158920399995</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>296900</v>
+      </c>
+      <c r="J457" t="n">
+        <v>296200</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15599,10 +15719,14 @@
         <v>-622.8158920399995</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>296700</v>
+      </c>
+      <c r="J458" t="n">
+        <v>296200</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15639,7 +15763,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>296200</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15676,7 +15802,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>296200</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15713,7 +15841,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>296200</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15750,7 +15880,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>296200</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15787,7 +15919,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>296200</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15824,7 +15958,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>296200</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15861,7 +15997,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>296200</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15898,7 +16036,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>296200</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15935,7 +16075,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>296200</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15972,7 +16114,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>296200</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16009,7 +16153,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>296200</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16046,7 +16192,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>296200</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16083,7 +16231,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>296200</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,7 +16270,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>296200</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16157,7 +16309,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>296200</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16194,7 +16348,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>296200</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,7 +16387,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>296200</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16268,7 +16426,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>296200</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16305,7 +16465,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>296200</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16342,7 +16504,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>296200</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16379,7 +16543,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>296200</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,7 +16582,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>296200</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16453,7 +16621,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>296200</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16490,7 +16660,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>296200</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16527,7 +16699,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>296200</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16561,10 +16735,14 @@
         <v>-629.8247777099997</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>296100</v>
+      </c>
+      <c r="J484" t="n">
+        <v>296200</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16598,10 +16776,14 @@
         <v>-633.2485790199997</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>295800</v>
+      </c>
+      <c r="J485" t="n">
+        <v>296200</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16635,10 +16817,14 @@
         <v>-633.2485790199997</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>295600</v>
+      </c>
+      <c r="J486" t="n">
+        <v>296200</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16672,10 +16858,14 @@
         <v>-630.2335790199998</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>295600</v>
+      </c>
+      <c r="J487" t="n">
+        <v>296200</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16709,10 +16899,14 @@
         <v>-630.5329790199997</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>296200</v>
+      </c>
+      <c r="J488" t="n">
+        <v>296200</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16746,10 +16940,14 @@
         <v>-641.7308790199997</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>296000</v>
+      </c>
+      <c r="J489" t="n">
+        <v>296200</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,10 +16981,14 @@
         <v>-557.1035790199998</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>295800</v>
+      </c>
+      <c r="J490" t="n">
+        <v>296200</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16820,10 +17022,14 @@
         <v>-559.5189790199997</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>296100</v>
+      </c>
+      <c r="J491" t="n">
+        <v>296200</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16857,10 +17063,14 @@
         <v>-559.6366790199997</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>295800</v>
+      </c>
+      <c r="J492" t="n">
+        <v>296200</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,10 +17104,14 @@
         <v>-545.1366790199997</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>295500</v>
+      </c>
+      <c r="J493" t="n">
+        <v>296200</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16931,10 +17145,14 @@
         <v>-511.0366790199997</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>296100</v>
+      </c>
+      <c r="J494" t="n">
+        <v>296200</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16968,10 +17186,14 @@
         <v>-447.1888790199997</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>296500</v>
+      </c>
+      <c r="J495" t="n">
+        <v>296200</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17005,10 +17227,14 @@
         <v>-454.8215790199997</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>297000</v>
+      </c>
+      <c r="J496" t="n">
+        <v>296200</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17045,7 +17271,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>296200</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17082,7 +17310,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>296200</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17119,7 +17349,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>296200</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17156,7 +17388,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>296200</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17193,7 +17427,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>296200</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17230,7 +17466,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>296200</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17267,7 +17505,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>296200</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17304,7 +17544,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>296200</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17341,7 +17583,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>296200</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17378,7 +17622,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>296200</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17415,7 +17661,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>296200</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17452,7 +17700,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>296200</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17489,7 +17739,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>296200</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17526,7 +17778,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>296200</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17563,7 +17817,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>296200</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17600,7 +17856,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>296200</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17637,7 +17895,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>296200</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17674,7 +17934,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>296200</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17711,7 +17973,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>296200</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17748,7 +18012,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>296200</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17785,7 +18051,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>296200</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17822,7 +18090,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>296200</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17859,7 +18129,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>296200</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17896,7 +18168,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>296200</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17933,7 +18207,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>296200</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17970,7 +18246,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>296200</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18007,7 +18285,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>296200</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18044,7 +18324,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>296200</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18081,7 +18363,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>296200</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18118,7 +18402,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>296200</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18155,7 +18441,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>296200</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18192,7 +18480,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>296200</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18229,7 +18519,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>296200</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18266,7 +18558,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>296200</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18303,7 +18597,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>296200</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18340,7 +18636,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>296200</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18377,7 +18675,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>296200</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18414,7 +18714,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>296200</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18451,7 +18753,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>296200</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18488,7 +18792,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>296200</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18525,7 +18831,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>296200</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18562,7 +18870,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>296200</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18599,7 +18909,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>296200</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18636,7 +18948,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>296200</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18673,7 +18987,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>296200</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18710,7 +19026,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>296200</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18747,7 +19065,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>296200</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18784,7 +19104,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>296200</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18821,7 +19143,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>296200</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18858,7 +19182,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>296200</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18895,7 +19221,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>296200</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18932,7 +19260,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>296200</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18969,7 +19299,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>296200</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19006,7 +19338,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>296200</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19043,7 +19377,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>296200</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19080,7 +19416,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>296200</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19117,7 +19455,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>296200</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19154,7 +19494,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>296200</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19191,7 +19533,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>296200</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19228,7 +19572,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>296200</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19265,7 +19611,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>296200</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19302,7 +19650,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>296200</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19339,7 +19689,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>296200</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19376,7 +19728,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>296200</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19413,7 +19767,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>296200</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19450,7 +19806,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>296200</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19487,7 +19845,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>296200</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19524,7 +19884,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>296200</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19561,7 +19923,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>296200</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19598,7 +19962,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>296200</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19635,7 +20001,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>296200</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19672,7 +20040,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>296200</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19709,7 +20079,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>296200</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19746,7 +20118,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>296200</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19783,7 +20157,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>296200</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19820,7 +20196,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>296200</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19857,7 +20235,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>296200</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19894,7 +20274,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>296200</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19931,7 +20313,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>296200</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19968,7 +20352,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>296200</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20005,7 +20391,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>296200</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20042,7 +20430,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>296200</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20079,7 +20469,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>296200</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20116,7 +20508,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>296200</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20153,7 +20547,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>296200</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20190,7 +20586,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>296200</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20227,7 +20625,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>296200</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20264,7 +20664,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>296200</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20301,7 +20703,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>296200</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20338,7 +20742,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>296200</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20375,7 +20781,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>296200</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20412,7 +20820,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>296200</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20449,7 +20859,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>296200</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20486,7 +20898,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>296200</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20523,7 +20937,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>296200</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20560,7 +20976,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>296200</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20597,7 +21015,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>296200</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20634,7 +21054,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>296200</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20671,7 +21093,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>296200</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20708,7 +21132,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>296200</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20745,7 +21171,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>296200</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20782,7 +21210,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>296200</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20819,7 +21249,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>296200</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20856,7 +21288,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>296200</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20893,7 +21327,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>296200</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20930,7 +21366,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>296200</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20967,7 +21405,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>296200</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21004,7 +21444,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>296200</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21041,7 +21483,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>296200</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21078,7 +21522,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>296200</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21115,7 +21561,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>296200</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21152,7 +21600,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>296200</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21189,7 +21639,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>296200</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21226,7 +21678,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>296200</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21263,7 +21717,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>296200</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21300,7 +21756,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>296200</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21337,7 +21795,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>296200</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21374,7 +21834,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>296200</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21411,7 +21873,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>296200</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21448,7 +21912,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>296200</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21485,7 +21951,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>296200</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21522,7 +21990,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>296200</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21559,7 +22029,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>296200</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21596,7 +22068,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>296200</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21633,7 +22107,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>296200</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21670,7 +22146,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>296200</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21707,7 +22185,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>296200</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21744,7 +22224,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>296200</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21781,7 +22263,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>296200</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21818,7 +22302,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>296200</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21855,7 +22341,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>296200</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21892,7 +22380,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>296200</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21929,7 +22419,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>296200</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21966,7 +22458,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>296200</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22003,7 +22497,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>296200</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22040,7 +22536,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>296200</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22077,7 +22575,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>296200</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22114,7 +22614,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>296200</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22151,7 +22653,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>296200</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22188,7 +22692,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>296200</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22225,7 +22731,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>296200</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22262,7 +22770,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>296200</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22299,7 +22809,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>296200</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22336,7 +22848,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>296200</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22373,7 +22887,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>296200</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22410,7 +22926,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>296200</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22447,7 +22965,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>296200</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22484,7 +23004,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>296200</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22521,7 +23043,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>296200</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22558,7 +23082,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>296200</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22595,7 +23121,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>296200</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22632,7 +23160,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>296200</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22669,7 +23199,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>296200</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22706,7 +23238,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>296200</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22743,7 +23277,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>296200</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22780,7 +23316,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>296200</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22817,7 +23355,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>296200</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22854,7 +23394,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>296200</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22891,7 +23433,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>296200</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22928,7 +23472,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>296200</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22965,7 +23511,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>296200</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23002,7 +23550,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>296200</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23039,7 +23589,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>296200</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23076,7 +23628,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>296200</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23113,7 +23667,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>296200</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23150,7 +23706,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>296200</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23187,7 +23745,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>296200</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23224,7 +23784,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>296200</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23261,7 +23823,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>296200</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23298,7 +23862,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>296200</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23335,7 +23901,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>296200</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23372,7 +23940,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>296200</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23409,7 +23979,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>296200</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23446,7 +24018,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>296200</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23483,7 +24057,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>296200</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23520,7 +24096,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>296200</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23554,642 +24132,760 @@
         <v>181.2311684000003</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>296200</v>
+      </c>
       <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>302800</v>
+      </c>
+      <c r="C674" t="n">
+        <v>302700</v>
+      </c>
+      <c r="D674" t="n">
+        <v>302800</v>
+      </c>
+      <c r="E674" t="n">
+        <v>302700</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.9245</v>
+      </c>
+      <c r="G674" t="n">
+        <v>180.3066684000003</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>302600</v>
+      </c>
+      <c r="C675" t="n">
+        <v>302600</v>
+      </c>
+      <c r="D675" t="n">
+        <v>302600</v>
+      </c>
+      <c r="E675" t="n">
+        <v>302600</v>
+      </c>
+      <c r="F675" t="n">
+        <v>10.7258</v>
+      </c>
+      <c r="G675" t="n">
+        <v>169.5808684000003</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>302200</v>
+      </c>
+      <c r="C676" t="n">
+        <v>302200</v>
+      </c>
+      <c r="D676" t="n">
+        <v>302200</v>
+      </c>
+      <c r="E676" t="n">
+        <v>302200</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="G676" t="n">
+        <v>169.5787684000003</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>302100</v>
+      </c>
+      <c r="C677" t="n">
+        <v>302100</v>
+      </c>
+      <c r="D677" t="n">
+        <v>302300</v>
+      </c>
+      <c r="E677" t="n">
+        <v>302100</v>
+      </c>
+      <c r="F677" t="n">
+        <v>2.0449</v>
+      </c>
+      <c r="G677" t="n">
+        <v>167.5338684000003</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>301900</v>
+      </c>
+      <c r="C678" t="n">
+        <v>301800</v>
+      </c>
+      <c r="D678" t="n">
+        <v>301900</v>
+      </c>
+      <c r="E678" t="n">
+        <v>301800</v>
+      </c>
+      <c r="F678" t="n">
+        <v>9.602600000000001</v>
+      </c>
+      <c r="G678" t="n">
+        <v>157.9312684000003</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>301700</v>
+      </c>
+      <c r="C679" t="n">
+        <v>301900</v>
+      </c>
+      <c r="D679" t="n">
+        <v>301900</v>
+      </c>
+      <c r="E679" t="n">
+        <v>301700</v>
+      </c>
+      <c r="F679" t="n">
+        <v>2.2534</v>
+      </c>
+      <c r="G679" t="n">
+        <v>160.1846684000003</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>302200</v>
+      </c>
+      <c r="C680" t="n">
+        <v>302200</v>
+      </c>
+      <c r="D680" t="n">
+        <v>302200</v>
+      </c>
+      <c r="E680" t="n">
+        <v>302200</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1.9814</v>
+      </c>
+      <c r="G680" t="n">
+        <v>162.1660684000003</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>302300</v>
+      </c>
+      <c r="C681" t="n">
+        <v>302300</v>
+      </c>
+      <c r="D681" t="n">
+        <v>302300</v>
+      </c>
+      <c r="E681" t="n">
+        <v>302300</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.5397</v>
+      </c>
+      <c r="G681" t="n">
+        <v>162.7057684000003</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>302300</v>
+      </c>
+      <c r="C682" t="n">
+        <v>302200</v>
+      </c>
+      <c r="D682" t="n">
+        <v>302300</v>
+      </c>
+      <c r="E682" t="n">
+        <v>302100</v>
+      </c>
+      <c r="F682" t="n">
+        <v>10.8653</v>
+      </c>
+      <c r="G682" t="n">
+        <v>151.8404684000003</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>302300</v>
+      </c>
+      <c r="C683" t="n">
+        <v>302300</v>
+      </c>
+      <c r="D683" t="n">
+        <v>302300</v>
+      </c>
+      <c r="E683" t="n">
+        <v>302300</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1.2151</v>
+      </c>
+      <c r="G683" t="n">
+        <v>153.0555684000003</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>302200</v>
+      </c>
+      <c r="C684" t="n">
+        <v>301800</v>
+      </c>
+      <c r="D684" t="n">
+        <v>302200</v>
+      </c>
+      <c r="E684" t="n">
+        <v>301800</v>
+      </c>
+      <c r="F684" t="n">
+        <v>5.6224</v>
+      </c>
+      <c r="G684" t="n">
+        <v>147.4331684000003</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>302300</v>
+      </c>
+      <c r="C685" t="n">
+        <v>302300</v>
+      </c>
+      <c r="D685" t="n">
+        <v>302300</v>
+      </c>
+      <c r="E685" t="n">
+        <v>302300</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1</v>
+      </c>
+      <c r="G685" t="n">
+        <v>148.4331684000003</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>302200</v>
+      </c>
+      <c r="C686" t="n">
+        <v>302000</v>
+      </c>
+      <c r="D686" t="n">
+        <v>302400</v>
+      </c>
+      <c r="E686" t="n">
+        <v>302000</v>
+      </c>
+      <c r="F686" t="n">
+        <v>11.7508</v>
+      </c>
+      <c r="G686" t="n">
+        <v>136.6823684000003</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>302300</v>
+      </c>
+      <c r="C687" t="n">
+        <v>302700</v>
+      </c>
+      <c r="D687" t="n">
+        <v>303000</v>
+      </c>
+      <c r="E687" t="n">
+        <v>302300</v>
+      </c>
+      <c r="F687" t="n">
+        <v>41.5295</v>
+      </c>
+      <c r="G687" t="n">
+        <v>178.2118684000003</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>302500</v>
+      </c>
+      <c r="C688" t="n">
+        <v>302500</v>
+      </c>
+      <c r="D688" t="n">
+        <v>302500</v>
+      </c>
+      <c r="E688" t="n">
+        <v>302500</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.4246</v>
+      </c>
+      <c r="G688" t="n">
+        <v>177.7872684000003</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>302400</v>
+      </c>
+      <c r="C689" t="n">
+        <v>302600</v>
+      </c>
+      <c r="D689" t="n">
+        <v>302600</v>
+      </c>
+      <c r="E689" t="n">
+        <v>302400</v>
+      </c>
+      <c r="F689" t="n">
+        <v>7.2947</v>
+      </c>
+      <c r="G689" t="n">
+        <v>185.0819684000003</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>302100</v>
+      </c>
+      <c r="C690" t="n">
+        <v>302100</v>
+      </c>
+      <c r="D690" t="n">
+        <v>302100</v>
+      </c>
+      <c r="E690" t="n">
+        <v>302100</v>
+      </c>
+      <c r="F690" t="n">
+        <v>27.1791</v>
+      </c>
+      <c r="G690" t="n">
+        <v>157.9028684000003</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>302100</v>
+      </c>
+      <c r="C691" t="n">
+        <v>302400</v>
+      </c>
+      <c r="D691" t="n">
+        <v>302400</v>
+      </c>
+      <c r="E691" t="n">
+        <v>302100</v>
+      </c>
+      <c r="F691" t="n">
+        <v>12.9453</v>
+      </c>
+      <c r="G691" t="n">
+        <v>170.8481684000003</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>302100</v>
+      </c>
+      <c r="C692" t="n">
+        <v>302100</v>
+      </c>
+      <c r="D692" t="n">
+        <v>302100</v>
+      </c>
+      <c r="E692" t="n">
+        <v>302100</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1.69650115</v>
+      </c>
+      <c r="G692" t="n">
+        <v>169.1516672500003</v>
+      </c>
+      <c r="H692" t="n">
+        <v>2</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>296200</v>
+      </c>
+      <c r="K692" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L673" t="inlineStr"/>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>302800</v>
-      </c>
-      <c r="C674" t="n">
-        <v>302700</v>
-      </c>
-      <c r="D674" t="n">
-        <v>302800</v>
-      </c>
-      <c r="E674" t="n">
-        <v>302700</v>
-      </c>
-      <c r="F674" t="n">
-        <v>0.9245</v>
-      </c>
-      <c r="G674" t="n">
-        <v>180.3066684000003</v>
-      </c>
-      <c r="H674" t="n">
-        <v>3</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>302600</v>
-      </c>
-      <c r="C675" t="n">
-        <v>302600</v>
-      </c>
-      <c r="D675" t="n">
-        <v>302600</v>
-      </c>
-      <c r="E675" t="n">
-        <v>302600</v>
-      </c>
-      <c r="F675" t="n">
-        <v>10.7258</v>
-      </c>
-      <c r="G675" t="n">
-        <v>169.5808684000003</v>
-      </c>
-      <c r="H675" t="n">
-        <v>3</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>302200</v>
-      </c>
-      <c r="C676" t="n">
-        <v>302200</v>
-      </c>
-      <c r="D676" t="n">
-        <v>302200</v>
-      </c>
-      <c r="E676" t="n">
-        <v>302200</v>
-      </c>
-      <c r="F676" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="G676" t="n">
-        <v>169.5787684000003</v>
-      </c>
-      <c r="H676" t="n">
-        <v>3</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>302100</v>
-      </c>
-      <c r="C677" t="n">
-        <v>302100</v>
-      </c>
-      <c r="D677" t="n">
-        <v>302300</v>
-      </c>
-      <c r="E677" t="n">
-        <v>302100</v>
-      </c>
-      <c r="F677" t="n">
-        <v>2.0449</v>
-      </c>
-      <c r="G677" t="n">
-        <v>167.5338684000003</v>
-      </c>
-      <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>301900</v>
-      </c>
-      <c r="C678" t="n">
-        <v>301800</v>
-      </c>
-      <c r="D678" t="n">
-        <v>301900</v>
-      </c>
-      <c r="E678" t="n">
-        <v>301800</v>
-      </c>
-      <c r="F678" t="n">
-        <v>9.602600000000001</v>
-      </c>
-      <c r="G678" t="n">
-        <v>157.9312684000003</v>
-      </c>
-      <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>301700</v>
-      </c>
-      <c r="C679" t="n">
-        <v>301900</v>
-      </c>
-      <c r="D679" t="n">
-        <v>301900</v>
-      </c>
-      <c r="E679" t="n">
-        <v>301700</v>
-      </c>
-      <c r="F679" t="n">
-        <v>2.2534</v>
-      </c>
-      <c r="G679" t="n">
-        <v>160.1846684000003</v>
-      </c>
-      <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>302200</v>
-      </c>
-      <c r="C680" t="n">
-        <v>302200</v>
-      </c>
-      <c r="D680" t="n">
-        <v>302200</v>
-      </c>
-      <c r="E680" t="n">
-        <v>302200</v>
-      </c>
-      <c r="F680" t="n">
-        <v>1.9814</v>
-      </c>
-      <c r="G680" t="n">
-        <v>162.1660684000003</v>
-      </c>
-      <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>302300</v>
-      </c>
-      <c r="C681" t="n">
-        <v>302300</v>
-      </c>
-      <c r="D681" t="n">
-        <v>302300</v>
-      </c>
-      <c r="E681" t="n">
-        <v>302300</v>
-      </c>
-      <c r="F681" t="n">
-        <v>0.5397</v>
-      </c>
-      <c r="G681" t="n">
-        <v>162.7057684000003</v>
-      </c>
-      <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>302300</v>
-      </c>
-      <c r="C682" t="n">
-        <v>302200</v>
-      </c>
-      <c r="D682" t="n">
-        <v>302300</v>
-      </c>
-      <c r="E682" t="n">
-        <v>302100</v>
-      </c>
-      <c r="F682" t="n">
-        <v>10.8653</v>
-      </c>
-      <c r="G682" t="n">
-        <v>151.8404684000003</v>
-      </c>
-      <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>302300</v>
-      </c>
-      <c r="C683" t="n">
-        <v>302300</v>
-      </c>
-      <c r="D683" t="n">
-        <v>302300</v>
-      </c>
-      <c r="E683" t="n">
-        <v>302300</v>
-      </c>
-      <c r="F683" t="n">
-        <v>1.2151</v>
-      </c>
-      <c r="G683" t="n">
-        <v>153.0555684000003</v>
-      </c>
-      <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>302200</v>
-      </c>
-      <c r="C684" t="n">
-        <v>301800</v>
-      </c>
-      <c r="D684" t="n">
-        <v>302200</v>
-      </c>
-      <c r="E684" t="n">
-        <v>301800</v>
-      </c>
-      <c r="F684" t="n">
-        <v>5.6224</v>
-      </c>
-      <c r="G684" t="n">
-        <v>147.4331684000003</v>
-      </c>
-      <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>302300</v>
-      </c>
-      <c r="C685" t="n">
-        <v>302300</v>
-      </c>
-      <c r="D685" t="n">
-        <v>302300</v>
-      </c>
-      <c r="E685" t="n">
-        <v>302300</v>
-      </c>
-      <c r="F685" t="n">
-        <v>1</v>
-      </c>
-      <c r="G685" t="n">
-        <v>148.4331684000003</v>
-      </c>
-      <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>302200</v>
-      </c>
-      <c r="C686" t="n">
-        <v>302000</v>
-      </c>
-      <c r="D686" t="n">
-        <v>302400</v>
-      </c>
-      <c r="E686" t="n">
-        <v>302000</v>
-      </c>
-      <c r="F686" t="n">
-        <v>11.7508</v>
-      </c>
-      <c r="G686" t="n">
-        <v>136.6823684000003</v>
-      </c>
-      <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>302300</v>
-      </c>
-      <c r="C687" t="n">
-        <v>302700</v>
-      </c>
-      <c r="D687" t="n">
-        <v>303000</v>
-      </c>
-      <c r="E687" t="n">
-        <v>302300</v>
-      </c>
-      <c r="F687" t="n">
-        <v>41.5295</v>
-      </c>
-      <c r="G687" t="n">
-        <v>178.2118684000003</v>
-      </c>
-      <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>302500</v>
-      </c>
-      <c r="C688" t="n">
-        <v>302500</v>
-      </c>
-      <c r="D688" t="n">
-        <v>302500</v>
-      </c>
-      <c r="E688" t="n">
-        <v>302500</v>
-      </c>
-      <c r="F688" t="n">
-        <v>0.4246</v>
-      </c>
-      <c r="G688" t="n">
-        <v>177.7872684000003</v>
-      </c>
-      <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>302400</v>
-      </c>
-      <c r="C689" t="n">
-        <v>302600</v>
-      </c>
-      <c r="D689" t="n">
-        <v>302600</v>
-      </c>
-      <c r="E689" t="n">
-        <v>302400</v>
-      </c>
-      <c r="F689" t="n">
-        <v>7.2947</v>
-      </c>
-      <c r="G689" t="n">
-        <v>185.0819684000003</v>
-      </c>
-      <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>302100</v>
-      </c>
-      <c r="C690" t="n">
-        <v>302100</v>
-      </c>
-      <c r="D690" t="n">
-        <v>302100</v>
-      </c>
-      <c r="E690" t="n">
-        <v>302100</v>
-      </c>
-      <c r="F690" t="n">
-        <v>27.1791</v>
-      </c>
-      <c r="G690" t="n">
-        <v>157.9028684000003</v>
-      </c>
-      <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>302100</v>
-      </c>
-      <c r="C691" t="n">
-        <v>302400</v>
-      </c>
-      <c r="D691" t="n">
-        <v>302400</v>
-      </c>
-      <c r="E691" t="n">
-        <v>302100</v>
-      </c>
-      <c r="F691" t="n">
-        <v>12.9453</v>
-      </c>
-      <c r="G691" t="n">
-        <v>170.8481684000003</v>
-      </c>
-      <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>302100</v>
-      </c>
-      <c r="C692" t="n">
-        <v>302100</v>
-      </c>
-      <c r="D692" t="n">
-        <v>302100</v>
-      </c>
-      <c r="E692" t="n">
-        <v>302100</v>
-      </c>
-      <c r="F692" t="n">
-        <v>1.69650115</v>
-      </c>
-      <c r="G692" t="n">
-        <v>169.1516672500003</v>
-      </c>
-      <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
-        <v>1</v>
+        <v>1.014918973666442</v>
       </c>
       <c r="M692" t="inlineStr"/>
     </row>
@@ -24216,7 +24912,7 @@
         <v>165.3515672500003</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24249,7 +24945,7 @@
         <v>160.3046672500003</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24282,7 +24978,7 @@
         <v>167.3489672500003</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24315,7 +25011,7 @@
         <v>166.3489672500003</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24348,7 +25044,7 @@
         <v>166.2629672500003</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24414,7 +25110,7 @@
         <v>161.8105672500003</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24447,7 +25143,7 @@
         <v>180.2904672500003</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24480,7 +25176,7 @@
         <v>161.6027672500003</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24513,7 +25209,7 @@
         <v>163.2546672500003</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24645,7 +25341,7 @@
         <v>116.2516672500003</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24678,7 +25374,7 @@
         <v>114.2804672500003</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24711,7 +25407,7 @@
         <v>120.6673672500003</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24744,7 +25440,7 @@
         <v>120.6673672500003</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24777,7 +25473,7 @@
         <v>120.6673672500003</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24810,7 +25506,7 @@
         <v>120.4738672500003</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24843,7 +25539,7 @@
         <v>121.5288672500003</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24876,7 +25572,7 @@
         <v>121.3354672500003</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24909,7 +25605,7 @@
         <v>121.3354672500003</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24942,7 +25638,7 @@
         <v>121.5286672500003</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24975,7 +25671,7 @@
         <v>122.9488672500003</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25008,7 +25704,7 @@
         <v>122.7156672500003</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25041,7 +25737,7 @@
         <v>25.92576725000031</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25074,7 +25770,7 @@
         <v>-81.36313274999969</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25107,7 +25803,7 @@
         <v>-81.13613274999969</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25140,7 +25836,7 @@
         <v>-85.18833274999969</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25173,7 +25869,7 @@
         <v>-84.74453274999969</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27098,6 +27794,6 @@
       <c r="M780" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BCH.xlsx
+++ b/BackTest/2020-01-14 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2068,7 +2068,7 @@
         <v>-188.2532852299998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-188.4162852299999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-192.0253852299999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-194.1519852299999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-193.7779852299999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-193.7779852299999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-192.4372852299999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-199.1016852299999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-199.1016852299999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-199.1907852299999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-199.1907852299999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-201.9693852299999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-201.9693852299999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-211.8203852299999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-211.8203852299999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-212.2270852299999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-102.6117852299999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-115.8524852299999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-115.8524852299999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-120.8524852299999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-124.1409852299999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-119.5833852299999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-119.4026852299999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-117.3695852299999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-119.0962852299999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-118.7290852299999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-119.5129852299999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-123.7010852299999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-124.5460852299999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-124.5460852299999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-134.5122852299999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>351.7477145000002</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>269.3413145000002</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>217.2267145000002</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>162.1916145000002</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>237.0826145000002</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>258.6036145000002</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>251.6036145000002</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>238.6036145000002</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>219.7429145000002</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>229.5982145000002</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>228.2571145000002</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>231.6673155500002</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>229.2895155500002</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>229.4345155500002</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>214.1387155500002</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>144.8332155500002</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>112.3314155500002</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>112.3314155500002</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>71.3814155500002</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>62.4469155500002</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>76.04991555000021</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>221.1526155500002</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>240.4593155500002</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>229.4512155500002</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>238.4512155500002</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>177.9512155500002</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>177.9512155500002</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>178.0093776500002</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>177.3664776500002</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>191.3664776500002</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>183.3676776500002</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>184.4910776500002</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>183.6319776500002</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>220.0249563900003</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>236.6496563900002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>219.7035428600003</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>229.4829428600003</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>261.1695428600003</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>257.6805428600003</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>257.6805428600003</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>255.9993428600004</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>224.4995428600004</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>216.6558428600003</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>218.1558428600003</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>218.1558428600003</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>217.4512428600003</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>185.6174428600004</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>186.3894428600003</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>167.3671428600003</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>155.2618428600003</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>161.3418428600004</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>161.3418428600004</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>160.8418428600004</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>133.1651428600003</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>135.7703428600003</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>135.3245428600003</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>133.2153428600004</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>133.2153428600004</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>130.0753428600004</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>107.9640428600004</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>41.21094286000037</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-97.75245713999963</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-81.79715713999964</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-236.5895571399996</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-236.5895571399996</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-236.5895571399996</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-226.8150571399996</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -14575,14 +14575,10 @@
         <v>-616.1479927099998</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>296200</v>
-      </c>
-      <c r="J430" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
@@ -14612,388 +14608,314 @@
         <v>-608.9340927099998</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>296300</v>
+      </c>
+      <c r="C432" t="n">
+        <v>296300</v>
+      </c>
+      <c r="D432" t="n">
+        <v>296300</v>
+      </c>
+      <c r="E432" t="n">
+        <v>296300</v>
+      </c>
+      <c r="F432" t="n">
+        <v>2.7795</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-608.9340927099998</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
         <v>296200</v>
       </c>
-      <c r="J431" t="n">
+      <c r="C433" t="n">
         <v>296200</v>
       </c>
-      <c r="K431" t="inlineStr">
+      <c r="D433" t="n">
+        <v>296200</v>
+      </c>
+      <c r="E433" t="n">
+        <v>296200</v>
+      </c>
+      <c r="F433" t="n">
+        <v>2</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-610.9340927099998</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>296100</v>
+      </c>
+      <c r="C434" t="n">
+        <v>296100</v>
+      </c>
+      <c r="D434" t="n">
+        <v>296100</v>
+      </c>
+      <c r="E434" t="n">
+        <v>296100</v>
+      </c>
+      <c r="F434" t="n">
+        <v>7.2205</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-618.1545927099999</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>296000</v>
+      </c>
+      <c r="C435" t="n">
+        <v>296000</v>
+      </c>
+      <c r="D435" t="n">
+        <v>296000</v>
+      </c>
+      <c r="E435" t="n">
+        <v>296000</v>
+      </c>
+      <c r="F435" t="n">
+        <v>1.4584</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-619.6129927099998</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>295700</v>
+      </c>
+      <c r="C436" t="n">
+        <v>295700</v>
+      </c>
+      <c r="D436" t="n">
+        <v>295700</v>
+      </c>
+      <c r="E436" t="n">
+        <v>295700</v>
+      </c>
+      <c r="F436" t="n">
+        <v>2.0611</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-621.6740927099999</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>295600</v>
+      </c>
+      <c r="C437" t="n">
+        <v>295600</v>
+      </c>
+      <c r="D437" t="n">
+        <v>295600</v>
+      </c>
+      <c r="E437" t="n">
+        <v>295500</v>
+      </c>
+      <c r="F437" t="n">
+        <v>21.7194</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-643.3934927099998</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>295500</v>
+      </c>
+      <c r="C438" t="n">
+        <v>295500</v>
+      </c>
+      <c r="D438" t="n">
+        <v>295500</v>
+      </c>
+      <c r="E438" t="n">
+        <v>295300</v>
+      </c>
+      <c r="F438" t="n">
+        <v>38.237</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-681.6304927099998</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>295300</v>
+      </c>
+      <c r="C439" t="n">
+        <v>295100</v>
+      </c>
+      <c r="D439" t="n">
+        <v>295400</v>
+      </c>
+      <c r="E439" t="n">
+        <v>295100</v>
+      </c>
+      <c r="F439" t="n">
+        <v>12.5517</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-694.1821927099998</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>295500</v>
+      </c>
+      <c r="C440" t="n">
+        <v>295000</v>
+      </c>
+      <c r="D440" t="n">
+        <v>295500</v>
+      </c>
+      <c r="E440" t="n">
+        <v>295000</v>
+      </c>
+      <c r="F440" t="n">
+        <v>24.1784</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-718.3605927099998</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>295100</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>296300</v>
-      </c>
-      <c r="C432" t="n">
-        <v>296300</v>
-      </c>
-      <c r="D432" t="n">
-        <v>296300</v>
-      </c>
-      <c r="E432" t="n">
-        <v>296300</v>
-      </c>
-      <c r="F432" t="n">
-        <v>2.7795</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-608.9340927099998</v>
-      </c>
-      <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>296300</v>
-      </c>
-      <c r="J432" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>296200</v>
-      </c>
-      <c r="C433" t="n">
-        <v>296200</v>
-      </c>
-      <c r="D433" t="n">
-        <v>296200</v>
-      </c>
-      <c r="E433" t="n">
-        <v>296200</v>
-      </c>
-      <c r="F433" t="n">
-        <v>2</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-610.9340927099998</v>
-      </c>
-      <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>296300</v>
-      </c>
-      <c r="J433" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>296100</v>
-      </c>
-      <c r="C434" t="n">
-        <v>296100</v>
-      </c>
-      <c r="D434" t="n">
-        <v>296100</v>
-      </c>
-      <c r="E434" t="n">
-        <v>296100</v>
-      </c>
-      <c r="F434" t="n">
-        <v>7.2205</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-618.1545927099999</v>
-      </c>
-      <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>296200</v>
-      </c>
-      <c r="J434" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>296000</v>
-      </c>
-      <c r="C435" t="n">
-        <v>296000</v>
-      </c>
-      <c r="D435" t="n">
-        <v>296000</v>
-      </c>
-      <c r="E435" t="n">
-        <v>296000</v>
-      </c>
-      <c r="F435" t="n">
-        <v>1.4584</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-619.6129927099998</v>
-      </c>
-      <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>296100</v>
-      </c>
-      <c r="J435" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>295700</v>
-      </c>
-      <c r="C436" t="n">
-        <v>295700</v>
-      </c>
-      <c r="D436" t="n">
-        <v>295700</v>
-      </c>
-      <c r="E436" t="n">
-        <v>295700</v>
-      </c>
-      <c r="F436" t="n">
-        <v>2.0611</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-621.6740927099999</v>
-      </c>
-      <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>296000</v>
-      </c>
-      <c r="J436" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>295600</v>
-      </c>
-      <c r="C437" t="n">
-        <v>295600</v>
-      </c>
-      <c r="D437" t="n">
-        <v>295600</v>
-      </c>
-      <c r="E437" t="n">
-        <v>295500</v>
-      </c>
-      <c r="F437" t="n">
-        <v>21.7194</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-643.3934927099998</v>
-      </c>
-      <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>295700</v>
-      </c>
-      <c r="J437" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>295500</v>
-      </c>
-      <c r="C438" t="n">
-        <v>295500</v>
-      </c>
-      <c r="D438" t="n">
-        <v>295500</v>
-      </c>
-      <c r="E438" t="n">
-        <v>295300</v>
-      </c>
-      <c r="F438" t="n">
-        <v>38.237</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-681.6304927099998</v>
-      </c>
-      <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>295600</v>
-      </c>
-      <c r="J438" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>295300</v>
-      </c>
-      <c r="C439" t="n">
-        <v>295100</v>
-      </c>
-      <c r="D439" t="n">
-        <v>295400</v>
-      </c>
-      <c r="E439" t="n">
-        <v>295100</v>
-      </c>
-      <c r="F439" t="n">
-        <v>12.5517</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-694.1821927099998</v>
-      </c>
-      <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>295500</v>
-      </c>
-      <c r="J439" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>295500</v>
-      </c>
-      <c r="C440" t="n">
-        <v>295000</v>
-      </c>
-      <c r="D440" t="n">
-        <v>295500</v>
-      </c>
-      <c r="E440" t="n">
-        <v>295000</v>
-      </c>
-      <c r="F440" t="n">
-        <v>24.1784</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-718.3605927099998</v>
-      </c>
-      <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>295100</v>
-      </c>
-      <c r="J440" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15027,9 +14949,7 @@
       <c r="I441" t="n">
         <v>295000</v>
       </c>
-      <c r="J441" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15068,9 +14988,7 @@
       <c r="I442" t="n">
         <v>294900</v>
       </c>
-      <c r="J442" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15109,9 +15027,7 @@
       <c r="I443" t="n">
         <v>295200</v>
       </c>
-      <c r="J443" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,9 +15066,7 @@
       <c r="I444" t="n">
         <v>295300</v>
       </c>
-      <c r="J444" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15191,9 +15105,7 @@
       <c r="I445" t="n">
         <v>295100</v>
       </c>
-      <c r="J445" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15232,9 +15144,7 @@
       <c r="I446" t="n">
         <v>295400</v>
       </c>
-      <c r="J446" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15273,9 +15183,7 @@
       <c r="I447" t="n">
         <v>295700</v>
       </c>
-      <c r="J447" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,9 +15222,7 @@
       <c r="I448" t="n">
         <v>295000</v>
       </c>
-      <c r="J448" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15355,9 +15261,7 @@
       <c r="I449" t="n">
         <v>295000</v>
       </c>
-      <c r="J449" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15396,9 +15300,7 @@
       <c r="I450" t="n">
         <v>295400</v>
       </c>
-      <c r="J450" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15437,9 +15339,7 @@
       <c r="I451" t="n">
         <v>295800</v>
       </c>
-      <c r="J451" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15478,9 +15378,7 @@
       <c r="I452" t="n">
         <v>295800</v>
       </c>
-      <c r="J452" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15519,9 +15417,7 @@
       <c r="I453" t="n">
         <v>295800</v>
       </c>
-      <c r="J453" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15555,14 +15451,10 @@
         <v>-687.5090920399996</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>296200</v>
-      </c>
-      <c r="J454" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15596,14 +15488,10 @@
         <v>-600.8158920399995</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>296400</v>
-      </c>
-      <c r="J455" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15637,14 +15525,10 @@
         <v>-600.8158920399995</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>296900</v>
-      </c>
-      <c r="J456" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15678,14 +15562,10 @@
         <v>-622.8158920399995</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>296900</v>
-      </c>
-      <c r="J457" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15719,14 +15599,10 @@
         <v>-622.8158920399995</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>296700</v>
-      </c>
-      <c r="J458" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15763,9 +15639,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,9 +15676,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15841,9 +15713,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15880,9 +15750,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15919,9 +15787,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15958,9 +15824,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,9 +15861,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16036,9 +15898,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16075,9 +15935,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16114,9 +15972,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16153,9 +16009,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16192,9 +16046,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,9 +16083,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,9 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,9 +16157,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16348,9 +16194,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,9 +16231,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16426,9 +16268,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16465,9 +16305,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16504,9 +16342,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,9 +16379,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16582,9 +16416,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16621,9 +16453,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16660,9 +16490,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16699,9 +16527,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16735,14 +16561,10 @@
         <v>-629.8247777099997</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>296100</v>
-      </c>
-      <c r="J484" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16776,14 +16598,10 @@
         <v>-633.2485790199997</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>295800</v>
-      </c>
-      <c r="J485" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16817,14 +16635,10 @@
         <v>-633.2485790199997</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>295600</v>
-      </c>
-      <c r="J486" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16858,14 +16672,10 @@
         <v>-630.2335790199998</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>295600</v>
-      </c>
-      <c r="J487" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16899,14 +16709,10 @@
         <v>-630.5329790199997</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>296200</v>
-      </c>
-      <c r="J488" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16940,14 +16746,10 @@
         <v>-641.7308790199997</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>296000</v>
-      </c>
-      <c r="J489" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16981,14 +16783,10 @@
         <v>-557.1035790199998</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>295800</v>
-      </c>
-      <c r="J490" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17022,14 +16820,10 @@
         <v>-559.5189790199997</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>296100</v>
-      </c>
-      <c r="J491" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17063,14 +16857,10 @@
         <v>-559.6366790199997</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>295800</v>
-      </c>
-      <c r="J492" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17104,14 +16894,10 @@
         <v>-545.1366790199997</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>295500</v>
-      </c>
-      <c r="J493" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17145,14 +16931,10 @@
         <v>-511.0366790199997</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>296100</v>
-      </c>
-      <c r="J494" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17186,14 +16968,10 @@
         <v>-447.1888790199997</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>296500</v>
-      </c>
-      <c r="J495" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17227,14 +17005,10 @@
         <v>-454.8215790199997</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>297000</v>
-      </c>
-      <c r="J496" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17271,9 +17045,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17310,9 +17082,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17349,9 +17119,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17388,9 +17156,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17427,9 +17193,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17466,9 +17230,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,9 +17267,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17544,9 +17304,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17583,9 +17341,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,9 +17378,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17661,9 +17415,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17700,9 +17452,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17739,9 +17489,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17778,9 +17526,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17817,9 +17563,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17856,9 +17600,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17895,9 +17637,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17934,9 +17674,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17973,9 +17711,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18012,9 +17748,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18051,9 +17785,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18090,9 +17822,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18129,9 +17859,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18168,9 +17896,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18207,9 +17933,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18246,9 +17970,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18285,9 +18007,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18324,9 +18044,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18363,9 +18081,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18402,9 +18118,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18441,9 +18155,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18480,9 +18192,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18519,9 +18229,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18558,9 +18266,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18597,9 +18303,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18636,9 +18340,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18675,9 +18377,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18714,9 +18414,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18753,9 +18451,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18792,9 +18488,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18831,9 +18525,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18870,9 +18562,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18909,9 +18599,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18948,9 +18636,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18987,9 +18673,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19026,9 +18710,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19065,9 +18747,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19104,9 +18784,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19143,9 +18821,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19182,9 +18858,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,9 +18895,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19260,9 +18932,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19299,9 +18969,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19338,9 +19006,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19377,9 +19043,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19416,9 +19080,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19455,9 +19117,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19494,9 +19154,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19533,9 +19191,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19572,9 +19228,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19611,9 +19265,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19650,9 +19302,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19689,9 +19339,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19728,9 +19376,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19764,20 +19410,16 @@
         <v>-322.7296818399996</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>296200</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="inlineStr"/>
     </row>
     <row r="562">
@@ -19803,17 +19445,11 @@
         <v>-340.8006818399996</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19842,17 +19478,11 @@
         <v>-340.8006818399996</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19884,14 +19514,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19923,14 +19547,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19959,17 +19577,11 @@
         <v>-372.0784818399997</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20001,14 +19613,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20040,14 +19646,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20079,14 +19679,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20115,17 +19709,11 @@
         <v>-229.6524818399997</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20154,17 +19742,11 @@
         <v>-231.3498818399997</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20193,17 +19775,11 @@
         <v>-203.2931818399996</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20232,17 +19808,11 @@
         <v>-203.2931818399996</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20271,17 +19841,11 @@
         <v>-203.0936818399996</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20310,17 +19874,11 @@
         <v>-203.0936818399996</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20349,17 +19907,11 @@
         <v>-213.1936818399996</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20388,17 +19940,11 @@
         <v>-221.4948818399996</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20427,17 +19973,11 @@
         <v>-221.4948818399996</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20466,17 +20006,11 @@
         <v>-359.3716818399996</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20505,17 +20039,11 @@
         <v>61.5807181600004</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20544,17 +20072,11 @@
         <v>-91.17928183999959</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20583,17 +20105,11 @@
         <v>-80.48308183999958</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20622,17 +20138,11 @@
         <v>-167.0325818399996</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20661,17 +20171,11 @@
         <v>-344.9360818399996</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20700,17 +20204,11 @@
         <v>-325.8130818399996</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20739,17 +20237,11 @@
         <v>-325.8130818399996</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20778,17 +20270,11 @@
         <v>-317.4390818399996</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20817,17 +20303,11 @@
         <v>-318.0824818399996</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20856,17 +20336,11 @@
         <v>-296.7331818399996</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20895,17 +20369,11 @@
         <v>-271.9093818399996</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20934,17 +20402,11 @@
         <v>-361.0338818399996</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20973,17 +20435,11 @@
         <v>-361.0338818399996</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21012,17 +20468,11 @@
         <v>-363.5707818399996</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21051,17 +20501,11 @@
         <v>-367.5957818399996</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21090,17 +20534,11 @@
         <v>-367.8457818399996</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21132,14 +20570,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21171,14 +20603,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21210,14 +20636,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21249,14 +20669,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21288,14 +20702,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21327,14 +20735,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21366,14 +20768,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21405,14 +20801,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21444,14 +20834,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21483,14 +20867,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21519,17 +20897,11 @@
         <v>-287.4537315999996</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21561,14 +20933,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21597,17 +20963,11 @@
         <v>-287.4537315999996</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21636,17 +20996,11 @@
         <v>-271.3257315999996</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21675,17 +21029,11 @@
         <v>-271.3257315999996</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21714,17 +21062,11 @@
         <v>-280.1433315999996</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21756,14 +21098,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21795,14 +21131,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21834,14 +21164,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21873,14 +21197,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21912,14 +21230,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21951,14 +21263,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21990,14 +21296,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22029,14 +21329,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22068,14 +21362,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22107,14 +21395,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22146,14 +21428,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22185,14 +21461,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22224,14 +21494,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22263,14 +21527,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22302,14 +21560,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22341,14 +21593,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22380,14 +21626,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22419,14 +21659,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22458,14 +21692,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22497,14 +21725,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22536,14 +21758,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22575,14 +21791,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22614,14 +21824,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22653,14 +21857,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22692,14 +21890,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22731,14 +21923,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22770,14 +21956,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22809,14 +21989,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22848,14 +22022,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22887,14 +22055,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22926,14 +22088,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22965,14 +22121,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23004,14 +22154,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23043,14 +22187,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23082,14 +22220,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23121,14 +22253,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23160,14 +22286,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23199,14 +22319,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23238,14 +22352,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23277,14 +22385,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23316,14 +22418,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23355,14 +22451,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23394,14 +22484,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23433,14 +22517,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23472,14 +22550,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23511,14 +22583,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23550,14 +22616,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23589,14 +22649,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23628,14 +22682,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23667,14 +22715,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23703,17 +22745,11 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23742,17 +22778,11 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23781,17 +22811,11 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23820,17 +22844,11 @@
         <v>-137.2973315999997</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23859,17 +22877,11 @@
         <v>129.0543684000003</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23901,14 +22913,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23940,14 +22946,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23979,14 +22979,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24018,14 +23012,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24057,14 +23045,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24096,14 +23078,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24135,14 +23111,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24174,14 +23144,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24213,14 +23177,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24252,14 +23210,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24291,14 +23243,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24330,14 +23276,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24369,14 +23309,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24408,14 +23342,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24447,14 +23375,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24486,14 +23408,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24525,14 +23441,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24564,14 +23474,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24603,14 +23507,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24642,14 +23540,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24681,14 +23573,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24720,14 +23606,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24759,14 +23639,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24798,14 +23672,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24837,14 +23705,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24873,19 +23735,13 @@
         <v>169.1516672500003</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>296200</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
-        <v>1.014918973666442</v>
+        <v>1</v>
       </c>
       <c r="M692" t="inlineStr"/>
     </row>
@@ -24912,7 +23768,7 @@
         <v>165.3515672500003</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25077,7 +23933,7 @@
         <v>166.2712672500003</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25341,7 +24197,7 @@
         <v>116.2516672500003</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25374,7 +24230,7 @@
         <v>114.2804672500003</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25407,7 +24263,7 @@
         <v>120.6673672500003</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25440,7 +24296,7 @@
         <v>120.6673672500003</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25473,7 +24329,7 @@
         <v>120.6673672500003</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25506,7 +24362,7 @@
         <v>120.4738672500003</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25539,7 +24395,7 @@
         <v>121.5288672500003</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25572,7 +24428,7 @@
         <v>121.3354672500003</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25605,7 +24461,7 @@
         <v>121.3354672500003</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25638,7 +24494,7 @@
         <v>121.5286672500003</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25671,7 +24527,7 @@
         <v>122.9488672500003</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25704,7 +24560,7 @@
         <v>122.7156672500003</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25737,7 +24593,7 @@
         <v>25.92576725000031</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25770,7 +24626,7 @@
         <v>-81.36313274999969</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25803,7 +24659,7 @@
         <v>-81.13613274999969</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25836,7 +24692,7 @@
         <v>-85.18833274999969</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25869,7 +24725,7 @@
         <v>-84.74453274999969</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27794,6 +26650,6 @@
       <c r="M780" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BCH.xlsx
+++ b/BackTest/2020-01-14 BackTest BCH.xlsx
@@ -2068,7 +2068,7 @@
         <v>-188.2532852299998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-188.4162852299999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-192.0253852299999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-194.1519852299999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-193.7779852299999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-193.7779852299999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-192.4372852299999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-199.1016852299999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-199.1016852299999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-199.1907852299999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-199.1907852299999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-201.9693852299999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-201.9693852299999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-211.8203852299999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-211.8203852299999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-212.2270852299999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-102.6117852299999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-115.8524852299999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-115.8524852299999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-120.8524852299999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-124.1409852299999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-119.5833852299999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-119.4026852299999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-117.3695852299999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-119.0962852299999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-118.7290852299999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-119.5129852299999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-123.7010852299999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-124.5460852299999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-124.5460852299999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-134.5122852299999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>439.8245145000002</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>351.7477145000002</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>269.3413145000002</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>217.2267145000002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>162.1916145000002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>237.0826145000002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>251.6036145000002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>238.6036145000002</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>219.7429145000002</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>229.5982145000002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>228.2571145000002</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>231.6673155500002</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>229.2895155500002</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>229.4345155500002</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>72.9028155500002</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>72.0003155500002</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>68.8591155500002</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>68.3335155500002</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>229.4363155500002</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>229.4363155500002</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>220.0249563900003</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>236.6496563900002</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>184.7138563900003</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>206.6962428600003</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>201.7273428600003</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>220.1103428600003</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -14905,17 +14905,11 @@
         <v>-718.3605927099998</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>295100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14944,17 +14938,11 @@
         <v>-724.7070927099998</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>295000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14988,12 +14976,10 @@
       <c r="I442" t="n">
         <v>294900</v>
       </c>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15027,10 +15013,12 @@
       <c r="I443" t="n">
         <v>295200</v>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>294900</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L443" t="n">
@@ -15066,10 +15054,12 @@
       <c r="I444" t="n">
         <v>295300</v>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>294900</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L444" t="n">
@@ -15105,10 +15095,12 @@
       <c r="I445" t="n">
         <v>295100</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>294900</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L445" t="n">
@@ -15144,7 +15136,9 @@
       <c r="I446" t="n">
         <v>295400</v>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>294900</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15183,7 +15177,9 @@
       <c r="I447" t="n">
         <v>295700</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>294900</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15222,7 +15218,9 @@
       <c r="I448" t="n">
         <v>295000</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>294900</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15261,7 +15259,9 @@
       <c r="I449" t="n">
         <v>295000</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>294900</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15300,7 +15300,9 @@
       <c r="I450" t="n">
         <v>295400</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>294900</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15339,7 +15341,9 @@
       <c r="I451" t="n">
         <v>295800</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>294900</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15378,7 +15382,9 @@
       <c r="I452" t="n">
         <v>295800</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>294900</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15417,7 +15423,9 @@
       <c r="I453" t="n">
         <v>295800</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>294900</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15451,10 +15459,14 @@
         <v>-687.5090920399996</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>296200</v>
+      </c>
+      <c r="J454" t="n">
+        <v>294900</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15488,10 +15500,14 @@
         <v>-600.8158920399995</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>296400</v>
+      </c>
+      <c r="J455" t="n">
+        <v>294900</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15525,10 +15541,14 @@
         <v>-600.8158920399995</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>296900</v>
+      </c>
+      <c r="J456" t="n">
+        <v>294900</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15565,7 +15585,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>294900</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15602,7 +15624,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>294900</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15639,7 +15663,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>294900</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15676,7 +15702,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>294900</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15713,7 +15741,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>294900</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15750,7 +15780,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>294900</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15787,7 +15819,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>294900</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15824,7 +15858,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>294900</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15861,7 +15897,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>294900</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15898,7 +15936,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>294900</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15935,7 +15975,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>294900</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15972,7 +16014,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>294900</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16009,7 +16053,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>294900</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16046,7 +16092,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>294900</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16083,7 +16131,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>294900</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,7 +16170,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>294900</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16157,7 +16209,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>294900</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16194,7 +16248,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>294900</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,7 +16287,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>294900</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16268,7 +16326,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>294900</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16305,7 +16365,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>294900</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16342,7 +16404,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>294900</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16379,7 +16443,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>294900</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,7 +16482,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>294900</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16453,7 +16521,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>294900</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16490,7 +16560,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>294900</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16527,7 +16599,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>294900</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16564,7 +16638,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>294900</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16601,7 +16677,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>294900</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16635,10 +16713,14 @@
         <v>-633.2485790199997</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>295600</v>
+      </c>
+      <c r="J486" t="n">
+        <v>294900</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16672,10 +16754,14 @@
         <v>-630.2335790199998</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>295600</v>
+      </c>
+      <c r="J487" t="n">
+        <v>294900</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16712,7 +16798,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>294900</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16749,7 +16837,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>294900</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,10 +16873,14 @@
         <v>-557.1035790199998</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>295800</v>
+      </c>
+      <c r="J490" t="n">
+        <v>294900</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16820,10 +16914,14 @@
         <v>-559.5189790199997</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>296100</v>
+      </c>
+      <c r="J491" t="n">
+        <v>294900</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16860,7 +16958,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>294900</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,10 +16994,14 @@
         <v>-545.1366790199997</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>295500</v>
+      </c>
+      <c r="J493" t="n">
+        <v>294900</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16931,10 +17035,14 @@
         <v>-511.0366790199997</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>296100</v>
+      </c>
+      <c r="J494" t="n">
+        <v>294900</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16971,7 +17079,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>294900</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17008,7 +17118,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>294900</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17045,7 +17157,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>294900</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17082,7 +17196,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>294900</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17119,7 +17235,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>294900</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17156,7 +17274,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>294900</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17193,7 +17313,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>294900</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17230,7 +17352,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>294900</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17267,7 +17391,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>294900</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17304,7 +17430,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>294900</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17341,7 +17469,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>294900</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17378,7 +17508,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>294900</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17415,7 +17547,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>294900</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17452,7 +17586,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>294900</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17489,7 +17625,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>294900</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17526,7 +17664,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>294900</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17563,7 +17703,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>294900</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17600,7 +17742,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>294900</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17637,7 +17781,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>294900</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17674,7 +17820,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>294900</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17711,7 +17859,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>294900</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17748,7 +17898,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>294900</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17785,7 +17937,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>294900</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17822,7 +17976,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>294900</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17859,7 +18015,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>294900</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17896,7 +18054,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>294900</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17933,7 +18093,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>294900</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17970,7 +18132,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>294900</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18007,7 +18171,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>294900</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18044,7 +18210,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>294900</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18081,7 +18249,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>294900</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18118,7 +18288,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>294900</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18155,7 +18327,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>294900</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18192,7 +18366,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>294900</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18229,7 +18405,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>294900</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18266,7 +18444,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>294900</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18303,7 +18483,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>294900</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18340,7 +18522,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>294900</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18377,7 +18561,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>294900</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18414,7 +18600,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>294900</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18451,7 +18639,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>294900</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18488,7 +18678,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>294900</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18525,7 +18717,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>294900</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18562,7 +18756,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>294900</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18599,7 +18795,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>294900</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18636,7 +18834,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>294900</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18673,7 +18873,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>294900</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18710,7 +18912,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>294900</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18747,7 +18951,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>294900</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18784,7 +18990,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>294900</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18821,7 +19029,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>294900</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18858,7 +19068,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>294900</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18895,7 +19107,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>294900</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18932,7 +19146,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>294900</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18969,7 +19185,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>294900</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19006,7 +19224,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>294900</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19043,7 +19263,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>294900</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19080,7 +19302,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>294900</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19117,7 +19341,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>294900</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19154,7 +19380,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>294900</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19191,7 +19419,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>294900</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19228,7 +19458,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>294900</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19265,7 +19497,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>294900</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19302,7 +19536,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>294900</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19339,7 +19575,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>294900</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19376,7 +19614,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>294900</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19410,16 +19650,20 @@
         <v>-322.7296818399996</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>294900</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L561" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
       <c r="M561" t="inlineStr"/>
     </row>
     <row r="562">
@@ -19445,11 +19689,17 @@
         <v>-340.8006818399996</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19478,11 +19728,17 @@
         <v>-340.8006818399996</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19514,8 +19770,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19547,8 +19809,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19577,11 +19845,17 @@
         <v>-372.0784818399997</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19613,8 +19887,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19646,8 +19926,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19679,8 +19965,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19709,11 +20001,17 @@
         <v>-229.6524818399997</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19742,11 +20040,17 @@
         <v>-231.3498818399997</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19775,11 +20079,17 @@
         <v>-203.2931818399996</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19808,11 +20118,17 @@
         <v>-203.2931818399996</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19841,11 +20157,17 @@
         <v>-203.0936818399996</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19874,11 +20196,17 @@
         <v>-203.0936818399996</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19907,11 +20235,17 @@
         <v>-213.1936818399996</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19940,11 +20274,17 @@
         <v>-221.4948818399996</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19973,11 +20313,17 @@
         <v>-221.4948818399996</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20006,11 +20352,17 @@
         <v>-359.3716818399996</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20039,11 +20391,17 @@
         <v>61.5807181600004</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20072,11 +20430,17 @@
         <v>-91.17928183999959</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20105,11 +20469,17 @@
         <v>-80.48308183999958</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20138,11 +20508,17 @@
         <v>-167.0325818399996</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20171,11 +20547,17 @@
         <v>-344.9360818399996</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20204,11 +20586,17 @@
         <v>-325.8130818399996</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20237,11 +20625,17 @@
         <v>-325.8130818399996</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20270,11 +20664,17 @@
         <v>-317.4390818399996</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20303,11 +20703,17 @@
         <v>-318.0824818399996</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20336,11 +20742,17 @@
         <v>-296.7331818399996</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20369,11 +20781,17 @@
         <v>-271.9093818399996</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20402,11 +20820,17 @@
         <v>-361.0338818399996</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20435,11 +20859,17 @@
         <v>-361.0338818399996</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20468,11 +20898,17 @@
         <v>-363.5707818399996</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20501,11 +20937,17 @@
         <v>-367.5957818399996</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20534,11 +20976,17 @@
         <v>-367.8457818399996</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20570,8 +21018,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20603,8 +21057,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20636,8 +21096,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20669,8 +21135,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20702,8 +21174,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20735,8 +21213,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20768,8 +21252,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20801,8 +21291,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20834,8 +21330,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20867,8 +21369,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20897,11 +21405,17 @@
         <v>-287.4537315999996</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20933,8 +21447,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20963,11 +21483,17 @@
         <v>-287.4537315999996</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20996,11 +21522,17 @@
         <v>-271.3257315999996</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21029,11 +21561,17 @@
         <v>-271.3257315999996</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21062,11 +21600,17 @@
         <v>-280.1433315999996</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21098,8 +21642,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21131,8 +21681,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21164,8 +21720,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21197,8 +21759,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21230,8 +21798,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21263,8 +21837,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21296,8 +21876,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21329,8 +21915,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21362,8 +21954,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21395,8 +21993,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21428,8 +22032,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21461,8 +22071,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21494,8 +22110,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21527,8 +22149,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21560,8 +22188,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21593,8 +22227,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21626,8 +22266,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21659,8 +22305,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21692,8 +22344,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21725,8 +22383,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21758,8 +22422,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21791,8 +22461,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21824,8 +22500,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21857,8 +22539,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21890,8 +22578,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21923,8 +22617,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21956,8 +22656,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21989,8 +22695,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22022,8 +22734,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22055,8 +22773,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22088,8 +22812,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22121,8 +22851,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22154,8 +22890,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22187,8 +22929,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22220,8 +22968,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22253,8 +23007,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22286,8 +23046,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22319,8 +23085,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22352,8 +23124,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22385,8 +23163,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22418,8 +23202,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22451,8 +23241,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22484,8 +23280,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22517,8 +23319,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22550,8 +23358,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22583,8 +23397,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22616,8 +23436,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22649,8 +23475,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22682,8 +23514,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22715,8 +23553,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22745,11 +23589,17 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22778,11 +23628,17 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22811,11 +23667,17 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22844,11 +23706,17 @@
         <v>-137.2973315999997</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22877,11 +23745,17 @@
         <v>129.0543684000003</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22913,8 +23787,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22946,8 +23826,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22979,8 +23865,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23012,8 +23904,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23045,8 +23943,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23078,8 +23982,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23111,8 +24021,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23144,8 +24060,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23177,8 +24099,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23210,8 +24138,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23243,8 +24177,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23276,8 +24216,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23309,8 +24255,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23342,8 +24294,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23375,8 +24333,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23408,8 +24372,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23441,8 +24411,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23474,8 +24450,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23507,8 +24489,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23540,8 +24528,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23573,8 +24567,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23606,8 +24606,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23639,8 +24645,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23672,8 +24684,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23705,8 +24723,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23738,8 +24762,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23771,8 +24801,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23801,11 +24837,17 @@
         <v>160.3046672500003</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23834,11 +24876,17 @@
         <v>167.3489672500003</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23867,11 +24915,17 @@
         <v>166.3489672500003</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23900,11 +24954,17 @@
         <v>166.2629672500003</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23933,11 +24993,17 @@
         <v>166.2712672500003</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23966,11 +25032,17 @@
         <v>161.8105672500003</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23999,11 +25071,17 @@
         <v>180.2904672500003</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24032,11 +25110,17 @@
         <v>161.6027672500003</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24065,11 +25149,17 @@
         <v>163.2546672500003</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24101,8 +25191,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24134,8 +25230,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24167,8 +25269,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24200,8 +25308,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24233,8 +25347,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24266,8 +25386,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24299,8 +25425,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24332,8 +25464,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24365,8 +25503,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24398,8 +25542,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24431,8 +25581,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24464,8 +25620,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24497,8 +25659,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24530,8 +25698,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24563,8 +25737,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24596,8 +25776,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24629,8 +25815,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24662,8 +25854,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24695,8 +25893,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24728,8 +25932,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24761,8 +25971,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24794,8 +26010,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24827,8 +26049,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24860,8 +26088,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24893,8 +26127,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24926,8 +26166,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24959,8 +26205,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24992,8 +26244,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25025,8 +26283,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25058,8 +26322,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25091,8 +26361,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25124,8 +26400,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25157,8 +26439,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25190,8 +26478,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25223,8 +26517,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25256,8 +26556,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25289,8 +26595,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25322,8 +26634,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25355,8 +26673,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25388,8 +26712,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25421,8 +26751,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25454,8 +26790,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25487,8 +26829,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25520,8 +26868,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25553,8 +26907,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25586,8 +26946,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25619,8 +26985,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25652,8 +27024,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25685,8 +27063,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25718,8 +27102,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25751,8 +27141,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25784,8 +27180,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25817,8 +27219,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25850,8 +27258,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25883,8 +27297,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25916,8 +27336,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25949,8 +27375,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25982,8 +27414,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26015,8 +27453,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26048,8 +27492,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26081,8 +27531,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26114,8 +27570,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26147,8 +27609,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26180,8 +27648,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26213,8 +27687,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26246,8 +27726,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26279,8 +27765,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26312,8 +27804,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26345,8 +27843,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26378,8 +27882,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26411,8 +27921,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26444,8 +27960,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26477,8 +27999,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26510,8 +28038,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26543,8 +28077,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26576,8 +28116,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26609,8 +28155,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26642,8 +28194,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>294900</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
